--- a/Docs/bill_materials.xlsx
+++ b/Docs/bill_materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofstthomasmn-my.sharepoint.com/personal/frie9722_stthomas_edu/Documents/Final_Project_ENGR331/dawg-security-system/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{FAB1F44B-FFAC-4819-B0EC-B6805B1ECC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6394E1C-8CDE-4C34-BF52-A71F73BC39CA}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{FAB1F44B-FFAC-4819-B0EC-B6805B1ECC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1989B236-F754-463C-AE99-2178CB573305}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2088" yWindow="3096" windowWidth="13152" windowHeight="8880" xr2:uid="{3E8EBC5B-37C8-43BF-9F27-7A7B036E9CBC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3E8EBC5B-37C8-43BF-9F27-7A7B036E9CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,6 +96,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,15 +116,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -143,37 +152,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -214,16 +192,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,6 +221,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,201 +544,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB676E6-DFDF-4C80-8287-BE5F4A6250D6}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>48.5</v>
+      </c>
+      <c r="E2" s="5">
         <f>SUM(C2*D2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E13" si="0">SUM(C3*D3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="1" t="s">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G17">
+      <c r="E15" s="12">
         <f>SUM(E2:E13)</f>
-        <v>0</v>
+        <v>59.550000000000004</v>
       </c>
     </row>
   </sheetData>
